--- a/libertadores/datasets_liberta/classificacao_por_grupo_fase_5.xlsx
+++ b/libertadores/datasets_liberta/classificacao_por_grupo_fase_5.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Final" sheetId="1" r:id="rId1"/>
+    <sheet name="Decisão 3º Lugar" sheetId="1" r:id="rId1"/>
+    <sheet name="Final" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Jogo</t>
   </si>
@@ -44,6 +45,15 @@
   </si>
   <si>
     <t>Posição</t>
+  </si>
+  <si>
+    <t>Decisão 3º Lugar</t>
+  </si>
+  <si>
+    <t>Real SCI</t>
+  </si>
+  <si>
+    <t>Texas Club 2025</t>
   </si>
   <si>
     <t>Final</t>
@@ -468,13 +478,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>58.510009765625</v>
+        <v>62.239990234375</v>
       </c>
       <c r="H2">
-        <v>53.10009765625</v>
+        <v>47.510009765625</v>
       </c>
       <c r="I2">
-        <v>5.409912109375</v>
+        <v>14.72998046875</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -486,6 +496,115 @@
       </c>
       <c r="B3" t="s">
         <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>47.510009765625</v>
+      </c>
+      <c r="H3">
+        <v>62.239990234375</v>
+      </c>
+      <c r="I3">
+        <v>-14.72998046875</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>58.510009765625</v>
+      </c>
+      <c r="H2">
+        <v>53.10009765625</v>
+      </c>
+      <c r="I2">
+        <v>5.409912109375</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
       <c r="C3">
         <v>0</v>
